--- a/Code/R/PerfSearch_Classification_JackKnifeCV_WEKA_SMOTE217_NormFeaturized.xlsx
+++ b/Code/R/PerfSearch_Classification_JackKnifeCV_WEKA_SMOTE217_NormFeaturized.xlsx
@@ -9,7 +9,10 @@
   <sheets>
     <sheet name="PerfSearch_Classification_JackK" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PerfSearch_Classification_JackK!$A$1:$H$144</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -516,8 +519,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -853,13 +857,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -879,145 +885,169 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>2800</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0.3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0.94930875599999998</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>0.94470046100000005</v>
       </c>
-      <c r="F2">
-        <v>0.95391705100000002</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="1">
+        <v>0.95391705100000002</v>
+      </c>
+      <c r="G2" s="1">
         <v>0.89865568100000004</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
+      <c r="H2" t="str">
+        <f>IF(G2=0.898655681,"BEST","")</f>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>2800</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0.94930875599999998</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>0.94470046100000005</v>
       </c>
-      <c r="F3">
-        <v>0.95391705100000002</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="1">
+        <v>0.95391705100000002</v>
+      </c>
+      <c r="G3" s="1">
         <v>0.89865568100000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H66" si="0">IF(G3=0.898655681,"BEST","")</f>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>2800</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.94930875599999998</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>0.94470046100000005</v>
       </c>
-      <c r="F4">
-        <v>0.95391705100000002</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="1">
+        <v>0.95391705100000002</v>
+      </c>
+      <c r="G4" s="1">
         <v>0.89865568100000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>2800</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.94930875599999998</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>0.94470046100000005</v>
       </c>
-      <c r="F5">
-        <v>0.95391705100000002</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="1">
+        <v>0.95391705100000002</v>
+      </c>
+      <c r="G5" s="1">
         <v>0.89865568100000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>2800</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>30</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.94930875599999998</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>0.94470046100000005</v>
       </c>
-      <c r="F6">
-        <v>0.95391705100000002</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="1">
+        <v>0.95391705100000002</v>
+      </c>
+      <c r="G6" s="1">
         <v>0.89865568100000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>2800</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>100</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.94930875599999998</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>0.94470046100000005</v>
       </c>
-      <c r="F7">
-        <v>0.95391705100000002</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="1">
+        <v>0.95391705100000002</v>
+      </c>
+      <c r="G7" s="1">
         <v>0.89865568100000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1039,8 +1069,12 @@
       <c r="G8">
         <v>0.89865568100000004</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1062,8 +1096,12 @@
       <c r="G9">
         <v>0.89865568100000004</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1085,8 +1123,12 @@
       <c r="G10">
         <v>0.89865568100000004</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1108,8 +1150,12 @@
       <c r="G11">
         <v>0.89865568100000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1131,8 +1177,12 @@
       <c r="G12">
         <v>0.89865568100000004</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1154,8 +1204,12 @@
       <c r="G13">
         <v>0.89865568100000004</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1177,8 +1231,12 @@
       <c r="G14">
         <v>0.89409466400000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1200,8 +1258,12 @@
       <c r="G15">
         <v>0.89409466400000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1223,8 +1285,12 @@
       <c r="G16">
         <v>0.89409466400000004</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1246,8 +1312,12 @@
       <c r="G17">
         <v>0.89409466400000004</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1269,8 +1339,12 @@
       <c r="G18">
         <v>0.89409466400000004</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1292,8 +1366,12 @@
       <c r="G19">
         <v>0.89409466400000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1315,8 +1393,12 @@
       <c r="G20">
         <v>0.89865568100000004</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1338,8 +1420,12 @@
       <c r="G21">
         <v>0.89865568100000004</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1361,8 +1447,12 @@
       <c r="G22">
         <v>0.89865568100000004</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1384,8 +1474,12 @@
       <c r="G23">
         <v>0.89865568100000004</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1407,8 +1501,12 @@
       <c r="G24">
         <v>0.89865568100000004</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1430,8 +1528,12 @@
       <c r="G25">
         <v>0.89865568100000004</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1453,8 +1555,12 @@
       <c r="G26">
         <v>0.89409466400000004</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1476,8 +1582,12 @@
       <c r="G27">
         <v>0.89409466400000004</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1499,8 +1609,12 @@
       <c r="G28">
         <v>0.89409466400000004</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1522,8 +1636,12 @@
       <c r="G29">
         <v>0.89409466400000004</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1545,8 +1663,12 @@
       <c r="G30">
         <v>0.89409466400000004</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1568,8 +1690,12 @@
       <c r="G31">
         <v>0.89409466400000004</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1591,8 +1717,12 @@
       <c r="G32">
         <v>0.89409466400000004</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1614,8 +1744,12 @@
       <c r="G33">
         <v>0.89409466400000004</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1637,8 +1771,12 @@
       <c r="G34">
         <v>0.89409466400000004</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1660,8 +1798,12 @@
       <c r="G35">
         <v>0.89409466400000004</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1683,8 +1825,12 @@
       <c r="G36">
         <v>0.89409466400000004</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1706,8 +1852,12 @@
       <c r="G37">
         <v>0.89409466400000004</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1729,8 +1879,12 @@
       <c r="G38">
         <v>0.89865568100000004</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1752,8 +1906,12 @@
       <c r="G39">
         <v>0.89865568100000004</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1775,8 +1933,12 @@
       <c r="G40">
         <v>0.89865568100000004</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1798,8 +1960,12 @@
       <c r="G41">
         <v>0.89865568100000004</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1821,8 +1987,12 @@
       <c r="G42">
         <v>0.89865568100000004</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1844,8 +2014,12 @@
       <c r="G43">
         <v>0.89865568100000004</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1867,8 +2041,12 @@
       <c r="G44">
         <v>0.88955206099999995</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1890,8 +2068,12 @@
       <c r="G45">
         <v>0.88955206099999995</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1913,8 +2095,12 @@
       <c r="G46">
         <v>0.88955206099999995</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1936,8 +2122,12 @@
       <c r="G47">
         <v>0.88955206099999995</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1959,8 +2149,12 @@
       <c r="G48">
         <v>0.88955206099999995</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1982,8 +2176,12 @@
       <c r="G49">
         <v>0.88955206099999995</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2005,8 +2203,12 @@
       <c r="G50">
         <v>0.88955206099999995</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2028,8 +2230,12 @@
       <c r="G51">
         <v>0.88955206099999995</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2051,8 +2257,12 @@
       <c r="G52">
         <v>0.88955206099999995</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2074,8 +2284,12 @@
       <c r="G53">
         <v>0.88955206099999995</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2097,8 +2311,12 @@
       <c r="G54">
         <v>0.885027593</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2120,8 +2338,12 @@
       <c r="G55">
         <v>0.885027593</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2143,8 +2365,12 @@
       <c r="G56">
         <v>0.885027593</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2166,8 +2392,12 @@
       <c r="G57">
         <v>0.885027593</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2189,8 +2419,12 @@
       <c r="G58">
         <v>0.885027593</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2212,8 +2446,12 @@
       <c r="G59">
         <v>0.88052098000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2235,8 +2473,12 @@
       <c r="G60">
         <v>0.88052098000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2258,8 +2500,12 @@
       <c r="G61">
         <v>0.88052098000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2281,8 +2527,12 @@
       <c r="G62">
         <v>0.88052098000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2304,8 +2554,12 @@
       <c r="G63">
         <v>0.88052098000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2327,8 +2581,12 @@
       <c r="G64">
         <v>0.885027593</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2350,8 +2608,12 @@
       <c r="G65">
         <v>0.885027593</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2373,8 +2635,12 @@
       <c r="G66">
         <v>0.885027593</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2396,8 +2662,12 @@
       <c r="G67">
         <v>0.885027593</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67" t="str">
+        <f t="shared" ref="H67:H130" si="1">IF(G67=0.898655681,"BEST","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2419,8 +2689,12 @@
       <c r="G68">
         <v>0.885027593</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2442,8 +2716,12 @@
       <c r="G69">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2465,8 +2743,12 @@
       <c r="G70">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2488,8 +2770,12 @@
       <c r="G71">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2511,8 +2797,12 @@
       <c r="G72">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2534,8 +2824,12 @@
       <c r="G73">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2557,8 +2851,12 @@
       <c r="G74">
         <v>0.87633006999999996</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2580,8 +2878,12 @@
       <c r="G75">
         <v>0.87633006999999996</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2603,8 +2905,12 @@
       <c r="G76">
         <v>0.87633006999999996</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2626,8 +2932,12 @@
       <c r="G77">
         <v>0.87633006999999996</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2649,8 +2959,12 @@
       <c r="G78">
         <v>0.87633006999999996</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2672,8 +2986,12 @@
       <c r="G79">
         <v>0.87633006999999996</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2695,8 +3013,12 @@
       <c r="G80">
         <v>0.87633006999999996</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2718,8 +3040,12 @@
       <c r="G81">
         <v>0.87633006999999996</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2741,8 +3067,12 @@
       <c r="G82">
         <v>0.87633006999999996</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2764,8 +3094,12 @@
       <c r="G83">
         <v>0.87633006999999996</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2787,8 +3121,12 @@
       <c r="G84">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2810,8 +3148,12 @@
       <c r="G85">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2833,8 +3175,12 @@
       <c r="G86">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2856,8 +3202,12 @@
       <c r="G87">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2879,8 +3229,12 @@
       <c r="G88">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2902,8 +3256,12 @@
       <c r="G89">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2925,8 +3283,12 @@
       <c r="G90">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2948,8 +3310,12 @@
       <c r="G91">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2971,8 +3337,12 @@
       <c r="G92">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2994,8 +3364,12 @@
       <c r="G93">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3017,8 +3391,12 @@
       <c r="G94">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3040,8 +3418,12 @@
       <c r="G95">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3063,8 +3445,12 @@
       <c r="G96">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3086,8 +3472,12 @@
       <c r="G97">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3109,8 +3499,12 @@
       <c r="G98">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3132,8 +3526,12 @@
       <c r="G99">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3155,8 +3553,12 @@
       <c r="G100">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3178,8 +3580,12 @@
       <c r="G101">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="H101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3201,8 +3607,12 @@
       <c r="G102">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3224,8 +3634,12 @@
       <c r="G103">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3247,8 +3661,12 @@
       <c r="G104">
         <v>0.87670315099999996</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="H104" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3270,8 +3688,12 @@
       <c r="G105">
         <v>0.87670315099999996</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="H105" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3293,8 +3715,12 @@
       <c r="G106">
         <v>0.87670315099999996</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="H106" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3316,8 +3742,12 @@
       <c r="G107">
         <v>0.87670315099999996</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="H107" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3339,8 +3769,12 @@
       <c r="G108">
         <v>0.87670315099999996</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="H108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3362,8 +3796,12 @@
       <c r="G109">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="H109" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3385,8 +3823,12 @@
       <c r="G110">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="H110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3408,8 +3850,12 @@
       <c r="G111">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="H111" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3431,8 +3877,12 @@
       <c r="G112">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="H112" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3454,8 +3904,12 @@
       <c r="G113">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="H113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3477,8 +3931,12 @@
       <c r="G114">
         <v>0.87670315099999996</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="H114" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3500,8 +3958,12 @@
       <c r="G115">
         <v>0.87670315099999996</v>
       </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="H115" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3523,8 +3985,12 @@
       <c r="G116">
         <v>0.87670315099999996</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="H116" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3546,8 +4012,12 @@
       <c r="G117">
         <v>0.87670315099999996</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="H117" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3569,8 +4039,12 @@
       <c r="G118">
         <v>0.87670315099999996</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="H118" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3592,8 +4066,12 @@
       <c r="G119">
         <v>0.88593160500000001</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="H119" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3615,8 +4093,12 @@
       <c r="G120">
         <v>0.88593160500000001</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="H120" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3638,8 +4120,12 @@
       <c r="G121">
         <v>0.88593160500000001</v>
       </c>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="H121" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3661,8 +4147,12 @@
       <c r="G122">
         <v>0.88593160500000001</v>
       </c>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="H122" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3684,8 +4174,12 @@
       <c r="G123">
         <v>0.88593160500000001</v>
       </c>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="H123" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3707,8 +4201,12 @@
       <c r="G124">
         <v>0.85868513099999999</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="H124" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3730,8 +4228,12 @@
       <c r="G125">
         <v>0.85868513099999999</v>
       </c>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="H125" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3753,8 +4255,12 @@
       <c r="G126">
         <v>0.85868513099999999</v>
       </c>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="H126" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3776,8 +4282,12 @@
       <c r="G127">
         <v>0.85868513099999999</v>
       </c>
-    </row>
-    <row r="128" spans="1:7">
+      <c r="H127" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3799,8 +4309,12 @@
       <c r="G128">
         <v>0.85868513099999999</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="H128" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3822,8 +4336,12 @@
       <c r="G129">
         <v>0.86747469600000005</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="H129" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3845,8 +4363,12 @@
       <c r="G130">
         <v>0.86747469600000005</v>
       </c>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="H130" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3868,8 +4390,12 @@
       <c r="G131">
         <v>0.86747469600000005</v>
       </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="H131" t="str">
+        <f t="shared" ref="H131:H143" si="2">IF(G131=0.898655681,"BEST","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3891,8 +4417,12 @@
       <c r="G132">
         <v>0.86747469600000005</v>
       </c>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="H132" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3914,8 +4444,12 @@
       <c r="G133">
         <v>0.86747469600000005</v>
       </c>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="H133" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3937,8 +4471,12 @@
       <c r="G134">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="H134" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3960,8 +4498,12 @@
       <c r="G135">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="136" spans="1:7">
+      <c r="H135" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3983,8 +4525,12 @@
       <c r="G136">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="137" spans="1:7">
+      <c r="H136" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4006,8 +4552,12 @@
       <c r="G137">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="H137" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4029,8 +4579,12 @@
       <c r="G138">
         <v>0.87189402800000004</v>
       </c>
-    </row>
-    <row r="139" spans="1:7">
+      <c r="H138" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4052,8 +4606,12 @@
       <c r="G139">
         <v>0.85868513099999999</v>
       </c>
-    </row>
-    <row r="140" spans="1:7">
+      <c r="H139" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4075,8 +4633,12 @@
       <c r="G140">
         <v>0.85868513099999999</v>
       </c>
-    </row>
-    <row r="141" spans="1:7">
+      <c r="H140" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4098,8 +4660,12 @@
       <c r="G141">
         <v>0.85868513099999999</v>
       </c>
-    </row>
-    <row r="142" spans="1:7">
+      <c r="H141" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4121,8 +4687,12 @@
       <c r="G142">
         <v>0.85868513099999999</v>
       </c>
-    </row>
-    <row r="143" spans="1:7">
+      <c r="H142" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4144,8 +4714,20 @@
       <c r="G143">
         <v>0.85868513099999999</v>
       </c>
+      <c r="H143" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="G144">
+        <f>MAX(G2:G143)</f>
+        <v>0.89865568100000004</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H144"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>